--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -458,7 +458,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/com/sayem/data/Test Cases.xlsx
+++ b/src/main/java/com/sayem/data/Test Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Sh@h1d@b3g0m</t>
-  </si>
-  <si>
-    <t>Test1</t>
   </si>
   <si>
     <t>Test2</t>
@@ -523,7 +520,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -546,16 +543,16 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -564,11 +561,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -577,7 +574,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -586,7 +583,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
